--- a/lectures/10/confidence_interval.xlsx
+++ b/lectures/10/confidence_interval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tn9k4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tn9k4\GitHub\courses_teach\mizzou\mar4050_S23_2\lectures\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE70EFB-E2CB-4779-BDC7-516D1424327B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736BCBA9-96E5-42F7-AF0B-AE905A6FE916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{239A5BC2-9290-4694-A40F-073CC121A9BA}"/>
+    <workbookView xWindow="4995" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{239A5BC2-9290-4694-A40F-073CC121A9BA}"/>
   </bookViews>
   <sheets>
     <sheet name="mean" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDA65D7-5473-47EC-A286-0F5F8DC386CF}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F76C6FE-43F4-4056-BC7E-0EB5D23D2AA9}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
